--- a/Excel Dataframes, EDA and Predictive Modelling/Bundesliga_last10.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/Bundesliga_last10.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10_home" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10_away" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,27 +447,82 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>xG</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>xGC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>GC</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>GD</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Pts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>PPG</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
         </is>
       </c>
     </row>
@@ -477,22 +533,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>11.988</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>1.993</v>
       </c>
       <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>89</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35</v>
+      </c>
+      <c r="L2" t="n">
         <v>16</v>
       </c>
-      <c r="F2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.6</v>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -502,372 +591,867 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>15.025</v>
       </c>
       <c r="D3" t="n">
+        <v>4.193</v>
+      </c>
+      <c r="E3" t="n">
         <v>12</v>
       </c>
-      <c r="E3" t="n">
-        <v>7</v>
-      </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>124</v>
+      </c>
+      <c r="K3" t="n">
+        <v>51</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>7.544</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>4.351</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>52</v>
+      </c>
+      <c r="K4" t="n">
+        <v>59</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>9.009</v>
       </c>
       <c r="D5" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>65</v>
+      </c>
+      <c r="K5" t="n">
+        <v>85</v>
+      </c>
+      <c r="L5" t="n">
         <v>14</v>
       </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.7</v>
+      <c r="M5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>8.75</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>6.465</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>60</v>
+      </c>
+      <c r="K6" t="n">
+        <v>63</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>12.715</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>5.247</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>81</v>
+      </c>
+      <c r="K7" t="n">
+        <v>57</v>
+      </c>
+      <c r="L7" t="n">
+        <v>19</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>RasenBallsport Leipzig</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>11.089</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>5.918</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>95</v>
+      </c>
+      <c r="K8" t="n">
+        <v>57</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.259</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
-        <v>9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15</v>
-      </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>56</v>
+      </c>
+      <c r="K9" t="n">
+        <v>45</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RasenBallsport Leipzig</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.521</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.535</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>72</v>
+      </c>
+      <c r="K10" t="n">
+        <v>59</v>
+      </c>
+      <c r="L10" t="n">
+        <v>18</v>
+      </c>
+      <c r="M10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>17</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.4</v>
+      <c r="N10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Borussia M.Gladbach</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>10.517</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>7.6</v>
       </c>
       <c r="E11" t="n">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>83</v>
+      </c>
+      <c r="K11" t="n">
+        <v>68</v>
+      </c>
+      <c r="L11" t="n">
         <v>12</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.2</v>
+      <c r="M11" t="n">
+        <v>12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.882</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.449000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>67</v>
+      </c>
+      <c r="K12" t="n">
+        <v>58</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11</v>
+      </c>
+      <c r="M12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.1</v>
+      <c r="N12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>6.548999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>6.529</v>
       </c>
       <c r="E13" t="n">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>62</v>
+      </c>
+      <c r="K13" t="n">
+        <v>78</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>12.44</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>6.738</v>
       </c>
       <c r="E14" t="n">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>98</v>
+      </c>
+      <c r="K14" t="n">
+        <v>63</v>
+      </c>
+      <c r="L14" t="n">
+        <v>14</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>10.467</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>6.223</v>
       </c>
       <c r="E15" t="n">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>82</v>
+      </c>
+      <c r="K15" t="n">
+        <v>68</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11</v>
+      </c>
+      <c r="M15" t="n">
         <v>9</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.9</v>
+      <c r="N15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Borussia M.Gladbach</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.101000000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.847</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>69</v>
+      </c>
+      <c r="K16" t="n">
+        <v>75</v>
+      </c>
+      <c r="L16" t="n">
         <v>10</v>
       </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>17</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.9</v>
+      <c r="M16" t="n">
+        <v>13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>6.665</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>3.741</v>
       </c>
       <c r="E17" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>-1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>87</v>
+      </c>
+      <c r="K17" t="n">
+        <v>47</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="18">
@@ -877,22 +1461,55 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.035</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.657</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>46</v>
+      </c>
+      <c r="K18" t="n">
+        <v>62</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M18" t="n">
         <v>10</v>
       </c>
-      <c r="C18" t="n">
-        <v>13</v>
-      </c>
-      <c r="D18" t="n">
-        <v>24</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-11</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.8</v>
+      <c r="N18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -902,47 +1519,113 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
+        <v>5.113</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
         <v>6</v>
       </c>
-      <c r="D19" t="n">
+      <c r="G19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>66</v>
+      </c>
+      <c r="K19" t="n">
+        <v>57</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
         <v>13</v>
       </c>
-      <c r="E19" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.8</v>
+      <c r="N19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>7.561</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>7.374</v>
       </c>
       <c r="E20" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>-2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>53</v>
+      </c>
+      <c r="K20" t="n">
+        <v>59</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -952,22 +1635,1326 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.306</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.066000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
         <v>10</v>
       </c>
+      <c r="G21" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>65</v>
+      </c>
+      <c r="K21" t="n">
+        <v>69</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>12</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>played</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>xG</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>xGC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.042</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.024</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.762</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.848</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>56</v>
+      </c>
+      <c r="K3" t="n">
+        <v>86</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.937</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.927</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>78</v>
+      </c>
+      <c r="K4" t="n">
+        <v>72</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>FC Heidenheim</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.694</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>50</v>
+      </c>
+      <c r="K5" t="n">
+        <v>83</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.010999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.319</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>69</v>
+      </c>
+      <c r="K6" t="n">
+        <v>47</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>65</v>
+      </c>
+      <c r="K7" t="n">
+        <v>57</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.048</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.071</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>70</v>
+      </c>
+      <c r="K8" t="n">
+        <v>57</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.165</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.612</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>38</v>
+      </c>
+      <c r="K9" t="n">
+        <v>85</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RasenBallsport Leipzig</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.967000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.148999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>67</v>
+      </c>
+      <c r="K10" t="n">
+        <v>74</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13</v>
+      </c>
+      <c r="M10" t="n">
+        <v>13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.965</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.596</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J11" t="n">
+        <v>58</v>
+      </c>
+      <c r="K11" t="n">
+        <v>107</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>15</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.685</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.165</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>62</v>
+      </c>
+      <c r="K12" t="n">
+        <v>102</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>17</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.471</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.184</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>56</v>
+      </c>
+      <c r="K13" t="n">
+        <v>77</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Hertha Berlin</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.672000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.546</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J14" t="n">
+        <v>52</v>
+      </c>
+      <c r="K14" t="n">
+        <v>121</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>21</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Schalke 04</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.336</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.524</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J15" t="n">
+        <v>75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>103</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>18</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>FC Cologne</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.822</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>47</v>
+      </c>
+      <c r="K16" t="n">
+        <v>70</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.801</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.566</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>72</v>
+      </c>
+      <c r="K17" t="n">
+        <v>86</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.095</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11.142</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>34</v>
+      </c>
+      <c r="K18" t="n">
+        <v>75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>60</v>
+      </c>
+      <c r="K19" t="n">
+        <v>67</v>
+      </c>
+      <c r="L19" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Borussia M.Gladbach</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11.579</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>48</v>
+      </c>
+      <c r="K20" t="n">
+        <v>94</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>15</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>5.969</v>
       </c>
       <c r="D21" t="n">
+        <v>14.798</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>70</v>
+      </c>
+      <c r="K21" t="n">
+        <v>83</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8</v>
+      </c>
+      <c r="M21" t="n">
         <v>18</v>
       </c>
-      <c r="E21" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.4</v>
+      <c r="N21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Dataframes, EDA and Predictive Modelling/Bundesliga_last10.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/Bundesliga_last10.xlsx
@@ -587,227 +587,227 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>15.025</v>
+        <v>9.866</v>
       </c>
       <c r="D3" t="n">
-        <v>4.193</v>
+        <v>3.773</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
         <v>2.5</v>
       </c>
       <c r="J3" t="n">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="K3" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="O3" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>7.544</v>
+        <v>11.61</v>
       </c>
       <c r="D4" t="n">
-        <v>4.351</v>
+        <v>3.884</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="K4" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="L4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P4" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>9.009</v>
+        <v>6.897</v>
       </c>
       <c r="D5" t="n">
-        <v>7.88</v>
+        <v>3.826</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>46</v>
+      </c>
+      <c r="K5" t="n">
+        <v>42</v>
+      </c>
+      <c r="L5" t="n">
         <v>11</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>65</v>
-      </c>
-      <c r="K5" t="n">
-        <v>85</v>
-      </c>
-      <c r="L5" t="n">
-        <v>14</v>
-      </c>
       <c r="M5" t="n">
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.75</v>
+        <v>8.574999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>6.465</v>
+        <v>6.000999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K6" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L6" t="n">
         <v>13</v>
       </c>
       <c r="M6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="Q6" t="n">
         <v>0.6</v>
@@ -819,59 +819,59 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.715</v>
+        <v>9.571999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>5.247</v>
+        <v>9.997</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="J7" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" t="n">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="L7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8">
@@ -935,26 +935,26 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>5.46</v>
+        <v>10.727</v>
       </c>
       <c r="D9" t="n">
-        <v>7.259</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
@@ -963,47 +963,47 @@
         <v>1.75</v>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M9" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
         <v>0.75</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.25</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.521</v>
+        <v>5.46</v>
       </c>
       <c r="D10" t="n">
-        <v>7.535</v>
+        <v>7.259</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1015,37 +1015,37 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="L10" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -1109,218 +1109,218 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>8.882</v>
+        <v>14.126</v>
       </c>
       <c r="D12" t="n">
-        <v>7.449000000000001</v>
+        <v>9.977</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="K12" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="L12" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>6.548999999999999</v>
+        <v>7.032</v>
       </c>
       <c r="D13" t="n">
-        <v>6.529</v>
+        <v>6.821000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>53</v>
+      </c>
+      <c r="K13" t="n">
+        <v>47</v>
+      </c>
+      <c r="L13" t="n">
         <v>8</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>62</v>
-      </c>
-      <c r="K13" t="n">
-        <v>78</v>
-      </c>
-      <c r="L13" t="n">
-        <v>7</v>
-      </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>12.44</v>
+        <v>10.258</v>
       </c>
       <c r="D14" t="n">
-        <v>6.738</v>
+        <v>5.74</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J14" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K14" t="n">
         <v>63</v>
       </c>
       <c r="L14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
         <v>0.8</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R14" t="n">
         <v>0.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>10.467</v>
+        <v>8.101000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>6.223</v>
+        <v>9.847</v>
       </c>
       <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
       <c r="G15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.2</v>
-      </c>
       <c r="J15" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K15" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N15" t="n">
         <v>0.8</v>
@@ -1341,175 +1341,175 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>8.101000000000001</v>
+        <v>7.754</v>
       </c>
       <c r="D16" t="n">
-        <v>9.847</v>
+        <v>5.292</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
         <v>-1</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="K16" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="L16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>6.665</v>
+        <v>5.035</v>
       </c>
       <c r="D17" t="n">
-        <v>3.741</v>
+        <v>7.657</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H17" t="n">
         <v>4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K17" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>5.035</v>
+        <v>5.526</v>
       </c>
       <c r="D18" t="n">
-        <v>7.657</v>
+        <v>7.216</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K18" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="O18" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19">
@@ -1522,37 +1522,37 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>5.113</v>
+        <v>6.158</v>
       </c>
       <c r="D19" t="n">
-        <v>9.18</v>
+        <v>8.968</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J19" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
         <v>0.2</v>
@@ -1561,13 +1561,13 @@
         <v>0.6</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" t="n">
         <v>0.4</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
@@ -1580,16 +1580,16 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>7.561</v>
+        <v>7.216</v>
       </c>
       <c r="D20" t="n">
-        <v>7.374</v>
+        <v>7.904</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
         <v>-2</v>
@@ -1601,22 +1601,22 @@
         <v>0.6</v>
       </c>
       <c r="J20" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K20" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M20" t="n">
         <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1635,46 +1635,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>6.306</v>
+        <v>7.42</v>
       </c>
       <c r="D21" t="n">
-        <v>9.066000000000001</v>
+        <v>12.462</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="J21" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K21" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="L21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M21" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1807,168 +1807,168 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>10.042</v>
+        <v>10.265</v>
       </c>
       <c r="D2" t="n">
-        <v>6.024</v>
+        <v>4.469</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K2" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L2" t="n">
         <v>12</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.6</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4.762</v>
+        <v>12.587</v>
       </c>
       <c r="D3" t="n">
-        <v>5.848</v>
+        <v>7.957999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="K3" t="n">
         <v>86</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>10.937</v>
+        <v>6.111</v>
       </c>
       <c r="D4" t="n">
-        <v>6.927</v>
+        <v>7.914</v>
       </c>
       <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J4" t="n">
+        <v>74</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
         <v>9</v>
       </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>78</v>
-      </c>
-      <c r="K4" t="n">
-        <v>72</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10</v>
-      </c>
       <c r="N4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -2032,175 +2032,175 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>9.010999999999999</v>
+        <v>9.089</v>
       </c>
       <c r="D6" t="n">
-        <v>6.319</v>
+        <v>11.055</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>-2</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
         <v>1.5</v>
       </c>
       <c r="J6" t="n">
+        <v>77</v>
+      </c>
+      <c r="K6" t="n">
         <v>69</v>
       </c>
-      <c r="K6" t="n">
-        <v>47</v>
-      </c>
       <c r="L6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N6" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="O6" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R6" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>4.49</v>
+        <v>7.239</v>
       </c>
       <c r="D7" t="n">
-        <v>4.62</v>
+        <v>9.448</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J7" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K7" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P7" t="n">
         <v>0.2</v>
       </c>
       <c r="Q7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>8.048</v>
+        <v>11.453</v>
       </c>
       <c r="D8" t="n">
-        <v>10.071</v>
+        <v>7.923999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="K8" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L8" t="n">
+        <v>16</v>
+      </c>
+      <c r="M8" t="n">
         <v>10</v>
       </c>
-      <c r="M8" t="n">
-        <v>16</v>
-      </c>
       <c r="N8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.6</v>
       </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
         <v>0.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.6</v>
       </c>
     </row>
     <row r="9">
@@ -2210,226 +2210,226 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5.165</v>
+        <v>6.86</v>
       </c>
       <c r="D9" t="n">
-        <v>11.612</v>
+        <v>12.46</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J9" t="n">
+        <v>48</v>
+      </c>
+      <c r="K9" t="n">
+        <v>101</v>
+      </c>
+      <c r="L9" t="n">
         <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>38</v>
-      </c>
-      <c r="K9" t="n">
-        <v>85</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8</v>
       </c>
       <c r="M9" t="n">
         <v>15</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RasenBallsport Leipzig</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>8.967000000000001</v>
+        <v>4.49</v>
       </c>
       <c r="D10" t="n">
-        <v>9.148999999999999</v>
+        <v>4.62</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J10" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K10" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="L10" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>RasenBallsport Leipzig</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.965</v>
+        <v>7.346</v>
       </c>
       <c r="D11" t="n">
-        <v>12.596</v>
+        <v>7.999</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K11" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="R11" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>7.685</v>
+        <v>5.286</v>
       </c>
       <c r="D12" t="n">
-        <v>14.165</v>
+        <v>8.969999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K12" t="n">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="O12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.4</v>
       </c>
       <c r="R12" t="n">
         <v>0.6</v>
@@ -2438,23 +2438,23 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>4.471</v>
+        <v>7.685</v>
       </c>
       <c r="D13" t="n">
-        <v>10.184</v>
+        <v>14.165</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
         <v>-5</v>
@@ -2466,114 +2466,114 @@
         <v>0.8</v>
       </c>
       <c r="J13" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K13" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>0.4</v>
       </c>
-      <c r="O13" t="n">
+      <c r="R13" t="n">
         <v>0.6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>6.672000000000001</v>
+        <v>3.793</v>
       </c>
       <c r="D14" t="n">
-        <v>16.546</v>
+        <v>9.695</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="J14" t="n">
         <v>52</v>
       </c>
       <c r="K14" t="n">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="L14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N14" t="n">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="O14" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Schalke 04</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>7.336</v>
+        <v>6.672000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>14.524</v>
+        <v>16.546</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -2582,114 +2582,114 @@
         <v>0.67</v>
       </c>
       <c r="J15" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="K15" t="n">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FC Cologne</t>
+          <t>Schalke 04</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>4.16</v>
+        <v>7.336</v>
       </c>
       <c r="D16" t="n">
-        <v>10.822</v>
+        <v>14.524</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="J16" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="K16" t="n">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>FC Cologne</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>4.801</v>
+        <v>4.16</v>
       </c>
       <c r="D17" t="n">
-        <v>11.566</v>
+        <v>10.822</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
@@ -2698,16 +2698,16 @@
         <v>0.6</v>
       </c>
       <c r="J17" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K17" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N17" t="n">
         <v>0.6</v>
@@ -2716,68 +2716,68 @@
         <v>0.4</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Borussia M.Gladbach</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>5.095</v>
+        <v>4.106</v>
       </c>
       <c r="D18" t="n">
-        <v>11.142</v>
+        <v>10.092</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>51</v>
+      </c>
+      <c r="K18" t="n">
+        <v>97</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" t="n">
         <v>11</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>34</v>
-      </c>
-      <c r="K18" t="n">
-        <v>75</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>13</v>
       </c>
       <c r="N18" t="n">
         <v>0.6</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P18" t="n">
         <v>0.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="R18" t="n">
         <v>0.4</v>
@@ -2790,13 +2790,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>5.873</v>
+        <v>3.964</v>
       </c>
       <c r="D19" t="n">
-        <v>6.603</v>
+        <v>6.354</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -2808,74 +2808,74 @@
         <v>-4</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K19" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Borussia M.Gladbach</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>3.588</v>
+        <v>4.137</v>
       </c>
       <c r="D20" t="n">
-        <v>11.579</v>
+        <v>12.523</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J20" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
@@ -2884,77 +2884,77 @@
         <v>15</v>
       </c>
       <c r="N20" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>5.969</v>
+        <v>4.584</v>
       </c>
       <c r="D21" t="n">
-        <v>14.798</v>
+        <v>9.813000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K21" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="L21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
